--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="380" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="6460" yWindow="160" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="132">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -324,6 +324,99 @@
   </si>
   <si>
     <t>Don't scale to 1990-1991 drop so as to be closer to EMEP trend</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>Don't scale 1981 to avoid reporting inconsistency in inventory</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>Avoid imlied Nox EF dip 1986-1989</t>
+  </si>
+  <si>
+    <t>gbr</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>bel</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>cyp</t>
+  </si>
+  <si>
+    <t>cze</t>
+  </si>
+  <si>
+    <t>deu</t>
+  </si>
+  <si>
+    <t>dnk</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>hrv</t>
+  </si>
+  <si>
+    <t>irl</t>
+  </si>
+  <si>
+    <t>isl</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>ltu</t>
+  </si>
+  <si>
+    <t>lva</t>
+  </si>
+  <si>
+    <t>nld</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>prt</t>
+  </si>
+  <si>
+    <t>rou</t>
+  </si>
+  <si>
+    <t>svk</t>
+  </si>
+  <si>
+    <t>svn</t>
+  </si>
+  <si>
+    <t>swe</t>
+  </si>
+  <si>
+    <t>(Better match to inventory if don't use linear to 1 for hun, bgr, gbr ind/power)</t>
   </si>
 </sst>
 </file>
@@ -379,8 +472,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="179">
+  <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -567,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="179">
+  <cellStyles count="227">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -657,6 +798,30 @@
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -746,6 +911,30 @@
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1972,20 +2161,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1993,99 +2183,2305 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
-        <v>90</v>
+      <c r="C2">
+        <v>1970</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="C3" t="s">
-        <v>90</v>
+      <c r="C3">
+        <v>1970</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>90</v>
+      <c r="C4">
+        <v>1970</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>91</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
-        <v>90</v>
+      <c r="C5">
+        <v>1970</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5">
-        <v>1970</v>
+        <v>91</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <v>1970</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>1970</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8">
+        <v>1970</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <v>1970</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>1970</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>1970</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>1970</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>1970</v>
+      </c>
+      <c r="D13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>1970</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15">
+        <v>1970</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>1970</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>1970</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18">
+        <v>1980</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19">
+        <v>1980</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <v>1980</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21">
+        <v>1980</v>
+      </c>
+      <c r="D21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22">
+        <v>1970</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <v>1970</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24">
+        <v>1970</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>1970</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26">
+        <v>1970</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <v>1970</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>1970</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29">
+        <v>1970</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30">
+        <v>1970</v>
+      </c>
+      <c r="D30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31">
+        <v>1970</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32">
+        <v>1970</v>
+      </c>
+      <c r="D32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
+        <v>1970</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34">
+        <v>1980</v>
+      </c>
+      <c r="D34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>1980</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>1980</v>
+      </c>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37">
+        <v>1980</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38">
+        <v>1970</v>
+      </c>
+      <c r="D38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39">
+        <v>1970</v>
+      </c>
+      <c r="D39" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40">
+        <v>1970</v>
+      </c>
+      <c r="D40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41">
+        <v>1970</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42">
+        <v>1970</v>
+      </c>
+      <c r="D42" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43">
+        <v>1970</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>1970</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45">
+        <v>1970</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46">
+        <v>1970</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47">
+        <v>1970</v>
+      </c>
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48">
+        <v>1980</v>
+      </c>
+      <c r="D48" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49">
+        <v>1980</v>
+      </c>
+      <c r="D49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50">
+        <v>1980</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51">
+        <v>1980</v>
+      </c>
+      <c r="D51" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52">
+        <v>1980</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53">
+        <v>1980</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54">
+        <v>1980</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55">
+        <v>1980</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56">
+        <v>1970</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57">
+        <v>1970</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>1970</v>
+      </c>
+      <c r="D58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59">
+        <v>1970</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60">
+        <v>1970</v>
+      </c>
+      <c r="D60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61">
+        <v>1970</v>
+      </c>
+      <c r="D61" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>119</v>
+      </c>
+      <c r="B62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62">
+        <v>1970</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63">
+        <v>1970</v>
+      </c>
+      <c r="D63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64">
+        <v>1970</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65">
+        <v>1970</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66">
+        <v>1970</v>
+      </c>
+      <c r="D66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67">
+        <v>1970</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68">
+        <v>1980</v>
+      </c>
+      <c r="D68" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69">
+        <v>1980</v>
+      </c>
+      <c r="D69" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70">
+        <v>1980</v>
+      </c>
+      <c r="D70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>1980</v>
+      </c>
+      <c r="D71" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72">
+        <v>1970</v>
+      </c>
+      <c r="D72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>1970</v>
+      </c>
+      <c r="D73" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>1970</v>
+      </c>
+      <c r="D74" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75">
+        <v>1970</v>
+      </c>
+      <c r="D75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76">
+        <v>1980</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>1980</v>
+      </c>
+      <c r="D77" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78">
+        <v>1980</v>
+      </c>
+      <c r="D78" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79">
+        <v>1980</v>
+      </c>
+      <c r="D79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>1980</v>
+      </c>
+      <c r="D80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81">
+        <v>1980</v>
+      </c>
+      <c r="D81" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82">
+        <v>1980</v>
+      </c>
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83">
+        <v>1980</v>
+      </c>
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>1970</v>
+      </c>
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85">
+        <v>1970</v>
+      </c>
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86">
+        <v>1970</v>
+      </c>
+      <c r="D86" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87">
+        <v>1970</v>
+      </c>
+      <c r="D87" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88">
+        <v>1970</v>
+      </c>
+      <c r="D88" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89">
+        <v>1970</v>
+      </c>
+      <c r="D89" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90">
+        <v>1970</v>
+      </c>
+      <c r="D90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>124</v>
+      </c>
+      <c r="B91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91">
+        <v>1970</v>
+      </c>
+      <c r="D91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>84</v>
+      </c>
+      <c r="C92">
+        <v>1980</v>
+      </c>
+      <c r="D92" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93">
+        <v>1980</v>
+      </c>
+      <c r="D93" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>125</v>
+      </c>
+      <c r="B94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94">
+        <v>1980</v>
+      </c>
+      <c r="D94" t="s">
+        <v>90</v>
+      </c>
+      <c r="E94" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95">
+        <v>1980</v>
+      </c>
+      <c r="D95" t="s">
+        <v>90</v>
+      </c>
+      <c r="E95" t="s">
+        <v>91</v>
+      </c>
+      <c r="F95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96">
+        <v>1980</v>
+      </c>
+      <c r="D96" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97">
+        <v>1980</v>
+      </c>
+      <c r="D97" t="s">
+        <v>90</v>
+      </c>
+      <c r="E97" t="s">
+        <v>91</v>
+      </c>
+      <c r="F97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98">
+        <v>1980</v>
+      </c>
+      <c r="D98" t="s">
+        <v>90</v>
+      </c>
+      <c r="E98" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99">
+        <v>1980</v>
+      </c>
+      <c r="D99" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100">
+        <v>1980</v>
+      </c>
+      <c r="D100" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101">
+        <v>1980</v>
+      </c>
+      <c r="D101" t="s">
+        <v>90</v>
+      </c>
+      <c r="E101" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>127</v>
+      </c>
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102">
+        <v>1980</v>
+      </c>
+      <c r="D102" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" t="s">
+        <v>72</v>
+      </c>
+      <c r="C103">
+        <v>1980</v>
+      </c>
+      <c r="D103" t="s">
+        <v>90</v>
+      </c>
+      <c r="E103" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104">
+        <v>1980</v>
+      </c>
+      <c r="D104" t="s">
+        <v>90</v>
+      </c>
+      <c r="E104" t="s">
+        <v>91</v>
+      </c>
+      <c r="F104" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" t="s">
+        <v>77</v>
+      </c>
+      <c r="C105">
+        <v>1980</v>
+      </c>
+      <c r="D105" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106">
+        <v>1980</v>
+      </c>
+      <c r="D106" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107">
+        <v>1980</v>
+      </c>
+      <c r="D107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108">
+        <v>1980</v>
+      </c>
+      <c r="D108" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" t="s">
+        <v>91</v>
+      </c>
+      <c r="F108" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" t="s">
+        <v>77</v>
+      </c>
+      <c r="C109">
+        <v>1980</v>
+      </c>
+      <c r="D109" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" t="s">
+        <v>91</v>
+      </c>
+      <c r="F109" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110">
+        <v>1980</v>
+      </c>
+      <c r="D110" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" t="s">
+        <v>72</v>
+      </c>
+      <c r="C111">
+        <v>1980</v>
+      </c>
+      <c r="D111" t="s">
+        <v>90</v>
+      </c>
+      <c r="E111" t="s">
+        <v>91</v>
+      </c>
+      <c r="F111" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" t="s">
+        <v>84</v>
+      </c>
+      <c r="C112">
+        <v>1970</v>
+      </c>
+      <c r="D112" t="s">
+        <v>90</v>
+      </c>
+      <c r="E112" t="s">
+        <v>91</v>
+      </c>
+      <c r="F112" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113">
+        <v>1970</v>
+      </c>
+      <c r="D113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" t="s">
+        <v>91</v>
+      </c>
+      <c r="F113" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+      <c r="C114">
+        <v>1970</v>
+      </c>
+      <c r="D114" t="s">
+        <v>90</v>
+      </c>
+      <c r="E114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115">
+        <v>1970</v>
+      </c>
+      <c r="D115" t="s">
+        <v>90</v>
+      </c>
+      <c r="E115" t="s">
+        <v>91</v>
+      </c>
+      <c r="F115" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F123">
+    <sortCondition ref="A2:A123"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2098,15 +4494,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2132,7 +4528,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -2156,6 +4552,64 @@
       </c>
       <c r="H2" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1982</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>1990</v>
+      </c>
+      <c r="G4">
+        <v>2020</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="160" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6460" yWindow="160" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="130">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -260,9 +260,6 @@
     <t>2D_Degreasing-Cleaning</t>
   </si>
   <si>
-    <t>Shipping</t>
-  </si>
-  <si>
     <t>3I_Agriculture-other</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
   </si>
   <si>
     <t>3E_Enteric-fermentation</t>
-  </si>
-  <si>
-    <t>Aviation</t>
   </si>
   <si>
     <t>Other</t>
@@ -1271,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1610,7 +1604,7 @@
         <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -1628,7 +1622,7 @@
         <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -1657,9 +1651,6 @@
       <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
       <c r="C38" t="s">
         <v>25</v>
       </c>
@@ -1669,9 +1660,6 @@
       <c r="A39" t="s">
         <v>64</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
       <c r="C39" t="s">
         <v>26</v>
       </c>
@@ -1681,9 +1669,6 @@
       <c r="A40" t="s">
         <v>56</v>
       </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -1694,9 +1679,6 @@
       <c r="A41" t="s">
         <v>63</v>
       </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -1708,7 +1690,7 @@
         <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
@@ -1721,7 +1703,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -1730,7 +1712,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -1739,7 +1721,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -1748,7 +1730,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>29</v>
@@ -1760,7 +1742,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
@@ -1804,7 +1786,7 @@
         <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>41</v>
@@ -1816,7 +1798,7 @@
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>42</v>
@@ -1826,10 +1808,10 @@
     <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1837,10 +1819,10 @@
     <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1848,17 +1830,17 @@
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
@@ -1868,10 +1850,10 @@
     </row>
     <row r="59" spans="1:6">
       <c r="B59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2163,7 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
@@ -2183,7 +2165,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2195,32 +2177,32 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2">
         <v>1970</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -2229,18 +2211,18 @@
         <v>1970</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -2249,18 +2231,18 @@
         <v>1970</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -2269,38 +2251,38 @@
         <v>1970</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C6">
         <v>1970</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -2309,18 +2291,18 @@
         <v>1970</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -2329,18 +2311,18 @@
         <v>1970</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -2349,38 +2331,38 @@
         <v>1970</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>1970</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -2389,18 +2371,18 @@
         <v>1970</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -2409,18 +2391,18 @@
         <v>1970</v>
       </c>
       <c r="D12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -2429,38 +2411,38 @@
         <v>1970</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>1970</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
         <v>77</v>
@@ -2469,18 +2451,18 @@
         <v>1970</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -2489,18 +2471,18 @@
         <v>1970</v>
       </c>
       <c r="D16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -2509,38 +2491,38 @@
         <v>1970</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C18">
         <v>1980</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -2549,18 +2531,18 @@
         <v>1980</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -2569,18 +2551,18 @@
         <v>1980</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -2589,38 +2571,38 @@
         <v>1980</v>
       </c>
       <c r="D21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22">
         <v>1970</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -2629,18 +2611,18 @@
         <v>1970</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -2649,18 +2631,18 @@
         <v>1970</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -2669,38 +2651,38 @@
         <v>1970</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>1970</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -2709,18 +2691,18 @@
         <v>1970</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
@@ -2729,18 +2711,18 @@
         <v>1970</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
@@ -2749,38 +2731,38 @@
         <v>1970</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>1970</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -2789,18 +2771,18 @@
         <v>1970</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
@@ -2809,18 +2791,18 @@
         <v>1970</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
@@ -2829,38 +2811,38 @@
         <v>1970</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34">
         <v>1980</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
@@ -2869,18 +2851,18 @@
         <v>1980</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
@@ -2889,18 +2871,18 @@
         <v>1980</v>
       </c>
       <c r="D36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -2909,38 +2891,38 @@
         <v>1980</v>
       </c>
       <c r="D37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38">
         <v>1970</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -2949,18 +2931,18 @@
         <v>1970</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
         <v>73</v>
@@ -2969,18 +2951,18 @@
         <v>1970</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
         <v>72</v>
@@ -2989,38 +2971,38 @@
         <v>1970</v>
       </c>
       <c r="D41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>1970</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
@@ -3029,18 +3011,18 @@
         <v>1970</v>
       </c>
       <c r="D43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
@@ -3049,18 +3031,18 @@
         <v>1970</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B45" t="s">
         <v>72</v>
@@ -3069,38 +3051,38 @@
         <v>1970</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>1970</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
@@ -3109,38 +3091,38 @@
         <v>1970</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C48">
         <v>1980</v>
       </c>
       <c r="D48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
@@ -3149,18 +3131,18 @@
         <v>1980</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -3169,18 +3151,18 @@
         <v>1980</v>
       </c>
       <c r="D50" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
@@ -3189,38 +3171,38 @@
         <v>1980</v>
       </c>
       <c r="D51" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C52">
         <v>1980</v>
       </c>
       <c r="D52" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
@@ -3229,18 +3211,18 @@
         <v>1980</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
@@ -3249,18 +3231,18 @@
         <v>1980</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s">
         <v>72</v>
@@ -3269,38 +3251,38 @@
         <v>1980</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56">
         <v>1970</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
         <v>77</v>
@@ -3309,18 +3291,18 @@
         <v>1970</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -3329,18 +3311,18 @@
         <v>1970</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
         <v>72</v>
@@ -3349,38 +3331,38 @@
         <v>1970</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>1970</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F60" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -3389,18 +3371,18 @@
         <v>1970</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
@@ -3409,18 +3391,18 @@
         <v>1970</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
@@ -3429,38 +3411,38 @@
         <v>1970</v>
       </c>
       <c r="D63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B64" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C64">
         <v>1970</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
@@ -3469,18 +3451,18 @@
         <v>1970</v>
       </c>
       <c r="D65" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
@@ -3489,18 +3471,18 @@
         <v>1970</v>
       </c>
       <c r="D66" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
@@ -3509,38 +3491,38 @@
         <v>1970</v>
       </c>
       <c r="D67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E67" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C68">
         <v>1980</v>
       </c>
       <c r="D68" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
@@ -3549,18 +3531,18 @@
         <v>1980</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
@@ -3569,18 +3551,18 @@
         <v>1980</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -3589,38 +3571,38 @@
         <v>1980</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72">
         <v>1970</v>
       </c>
       <c r="D72" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
@@ -3629,18 +3611,18 @@
         <v>1970</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
@@ -3649,18 +3631,18 @@
         <v>1970</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
         <v>72</v>
@@ -3669,38 +3651,38 @@
         <v>1970</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C76">
         <v>1980</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
@@ -3709,18 +3691,18 @@
         <v>1980</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F77" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B78" t="s">
         <v>73</v>
@@ -3729,18 +3711,18 @@
         <v>1980</v>
       </c>
       <c r="D78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B79" t="s">
         <v>72</v>
@@ -3749,38 +3731,38 @@
         <v>1980</v>
       </c>
       <c r="D79" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F79" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C80">
         <v>1980</v>
       </c>
       <c r="D80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -3789,18 +3771,18 @@
         <v>1980</v>
       </c>
       <c r="D81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F81" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
         <v>73</v>
@@ -3809,18 +3791,18 @@
         <v>1980</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
         <v>72</v>
@@ -3829,38 +3811,38 @@
         <v>1980</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <v>1970</v>
       </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
         <v>77</v>
@@ -3869,18 +3851,18 @@
         <v>1970</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
         <v>73</v>
@@ -3889,18 +3871,18 @@
         <v>1970</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
         <v>72</v>
@@ -3909,38 +3891,38 @@
         <v>1970</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C88">
         <v>1970</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
         <v>77</v>
@@ -3949,18 +3931,18 @@
         <v>1970</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B90" t="s">
         <v>73</v>
@@ -3969,18 +3951,18 @@
         <v>1970</v>
       </c>
       <c r="D90" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E90" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F90" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B91" t="s">
         <v>72</v>
@@ -3989,38 +3971,38 @@
         <v>1970</v>
       </c>
       <c r="D91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F91" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C92">
         <v>1980</v>
       </c>
       <c r="D92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F92" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B93" t="s">
         <v>77</v>
@@ -4029,18 +4011,18 @@
         <v>1980</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F93" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B94" t="s">
         <v>73</v>
@@ -4049,18 +4031,18 @@
         <v>1980</v>
       </c>
       <c r="D94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E94" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
         <v>72</v>
@@ -4069,38 +4051,38 @@
         <v>1980</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C96">
         <v>1980</v>
       </c>
       <c r="D96" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E96" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F96" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B97" t="s">
         <v>77</v>
@@ -4109,18 +4091,18 @@
         <v>1980</v>
       </c>
       <c r="D97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
         <v>73</v>
@@ -4129,18 +4111,18 @@
         <v>1980</v>
       </c>
       <c r="D98" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B99" t="s">
         <v>72</v>
@@ -4149,38 +4131,38 @@
         <v>1980</v>
       </c>
       <c r="D99" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E99" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F99" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C100">
         <v>1980</v>
       </c>
       <c r="D100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E100" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F100" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -4189,18 +4171,18 @@
         <v>1980</v>
       </c>
       <c r="D101" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F101" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
         <v>73</v>
@@ -4209,18 +4191,18 @@
         <v>1980</v>
       </c>
       <c r="D102" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E102" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F102" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
         <v>72</v>
@@ -4229,38 +4211,38 @@
         <v>1980</v>
       </c>
       <c r="D103" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E103" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F103" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C104">
         <v>1980</v>
       </c>
       <c r="D104" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E104" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F104" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
         <v>77</v>
@@ -4269,18 +4251,18 @@
         <v>1980</v>
       </c>
       <c r="D105" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E105" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F105" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B106" t="s">
         <v>73</v>
@@ -4289,18 +4271,18 @@
         <v>1980</v>
       </c>
       <c r="D106" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E106" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F106" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B107" t="s">
         <v>72</v>
@@ -4309,38 +4291,38 @@
         <v>1980</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F107" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C108">
         <v>1980</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E108" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F108" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
         <v>77</v>
@@ -4349,18 +4331,18 @@
         <v>1980</v>
       </c>
       <c r="D109" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E109" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F109" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B110" t="s">
         <v>73</v>
@@ -4369,18 +4351,18 @@
         <v>1980</v>
       </c>
       <c r="D110" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E110" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F110" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B111" t="s">
         <v>72</v>
@@ -4389,38 +4371,38 @@
         <v>1980</v>
       </c>
       <c r="D111" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E111" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F111" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B112" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C112">
         <v>1970</v>
       </c>
       <c r="D112" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E112" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F112" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
         <v>77</v>
@@ -4429,18 +4411,18 @@
         <v>1970</v>
       </c>
       <c r="D113" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E113" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F113" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B114" t="s">
         <v>73</v>
@@ -4449,18 +4431,18 @@
         <v>1970</v>
       </c>
       <c r="D114" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E114" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F114" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B115" t="s">
         <v>72</v>
@@ -4469,13 +4451,13 @@
         <v>1970</v>
       </c>
       <c r="D115" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E115" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F115" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4516,24 +4498,24 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>96</v>
-      </c>
-      <c r="G1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4551,15 +4533,15 @@
         <v>2010</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4580,12 +4562,12 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -4609,7 +4591,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="160" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="131">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>(Better match to inventory if don't use linear to 1 for hun, bgr, gbr ind/power)</t>
+  </si>
+  <si>
+    <t>Don't scale prior to 1990 since we do not have consistent driver data at this level</t>
   </si>
 </sst>
 </file>
@@ -466,8 +469,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="227">
+  <cellStyleXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -702,7 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="227">
+  <cellStyles count="267">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -816,6 +859,26 @@
     <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -929,6 +992,26 @@
     <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1265,7 +1348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -2143,11 +2226,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119:C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2228,7 +2311,7 @@
         <v>73</v>
       </c>
       <c r="C4">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D4" t="s">
         <v>88</v>
@@ -2248,7 +2331,7 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D5" t="s">
         <v>88</v>
@@ -2308,7 +2391,7 @@
         <v>73</v>
       </c>
       <c r="C8">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D8" t="s">
         <v>88</v>
@@ -2328,7 +2411,7 @@
         <v>72</v>
       </c>
       <c r="C9">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D9" t="s">
         <v>88</v>
@@ -2388,7 +2471,7 @@
         <v>73</v>
       </c>
       <c r="C12">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D12" t="s">
         <v>88</v>
@@ -2408,7 +2491,7 @@
         <v>72</v>
       </c>
       <c r="C13">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
@@ -2468,7 +2551,7 @@
         <v>73</v>
       </c>
       <c r="C16">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
@@ -2488,7 +2571,7 @@
         <v>72</v>
       </c>
       <c r="C17">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D17" t="s">
         <v>88</v>
@@ -2502,13 +2585,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
       </c>
       <c r="C18">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D18" t="s">
         <v>88</v>
@@ -2522,13 +2605,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
       </c>
       <c r="C19">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D19" t="s">
         <v>88</v>
@@ -2542,7 +2625,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -2562,7 +2645,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -2582,7 +2665,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -2602,7 +2685,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -2622,13 +2705,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
       </c>
       <c r="C24">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D24" t="s">
         <v>88</v>
@@ -2642,13 +2725,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
       </c>
       <c r="C25">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D25" t="s">
         <v>88</v>
@@ -2662,7 +2745,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
@@ -2682,7 +2765,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
         <v>77</v>
@@ -2702,13 +2785,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
       </c>
       <c r="C28">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D28" t="s">
         <v>88</v>
@@ -2722,13 +2805,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>72</v>
       </c>
       <c r="C29">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D29" t="s">
         <v>88</v>
@@ -2742,7 +2825,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
         <v>82</v>
@@ -2762,7 +2845,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
@@ -2782,13 +2865,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>73</v>
       </c>
       <c r="C32">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D32" t="s">
         <v>88</v>
@@ -2802,13 +2885,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>72</v>
       </c>
       <c r="C33">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
@@ -2822,13 +2905,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
       </c>
       <c r="C34">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D34" t="s">
         <v>88</v>
@@ -2842,13 +2925,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
       </c>
       <c r="C35">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D35" t="s">
         <v>88</v>
@@ -2862,7 +2945,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
         <v>73</v>
@@ -2882,7 +2965,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
@@ -2902,7 +2985,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
         <v>82</v>
@@ -2922,7 +3005,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
@@ -2942,10 +3025,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C40">
         <v>1970</v>
@@ -2962,10 +3045,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <v>1970</v>
@@ -2982,13 +3065,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C42">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
@@ -3002,13 +3085,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C43">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D43" t="s">
         <v>88</v>
@@ -3022,10 +3105,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C44">
         <v>1970</v>
@@ -3042,10 +3125,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C45">
         <v>1970</v>
@@ -3062,13 +3145,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C46">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D46" t="s">
         <v>88</v>
@@ -3082,13 +3165,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C47">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D47" t="s">
         <v>88</v>
@@ -3102,13 +3185,13 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
         <v>82</v>
       </c>
       <c r="C48">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D48" t="s">
         <v>88</v>
@@ -3122,13 +3205,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
       </c>
       <c r="C49">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D49" t="s">
         <v>88</v>
@@ -3142,7 +3225,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
         <v>73</v>
@@ -3162,7 +3245,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B51" t="s">
         <v>72</v>
@@ -3182,13 +3265,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
         <v>82</v>
       </c>
       <c r="C52">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D52" t="s">
         <v>88</v>
@@ -3202,13 +3285,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
       </c>
       <c r="C53">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D53" t="s">
         <v>88</v>
@@ -3222,7 +3305,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
         <v>73</v>
@@ -3242,7 +3325,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
         <v>72</v>
@@ -3262,7 +3345,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
         <v>82</v>
@@ -3282,7 +3365,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B57" t="s">
         <v>77</v>
@@ -3302,13 +3385,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
       </c>
       <c r="C58">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D58" t="s">
         <v>88</v>
@@ -3322,13 +3405,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
         <v>72</v>
       </c>
       <c r="C59">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D59" t="s">
         <v>88</v>
@@ -3342,7 +3425,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
         <v>82</v>
@@ -3362,7 +3445,7 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
         <v>77</v>
@@ -3382,13 +3465,13 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
         <v>73</v>
       </c>
       <c r="C62">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
@@ -3402,13 +3485,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
       </c>
       <c r="C63">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D63" t="s">
         <v>88</v>
@@ -3422,13 +3505,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B64" t="s">
         <v>82</v>
       </c>
       <c r="C64">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D64" t="s">
         <v>88</v>
@@ -3442,13 +3525,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
       </c>
       <c r="C65">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D65" t="s">
         <v>88</v>
@@ -3462,13 +3545,13 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
         <v>73</v>
       </c>
       <c r="C66">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D66" t="s">
         <v>88</v>
@@ -3482,13 +3565,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
       </c>
       <c r="C67">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
@@ -3502,13 +3585,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
         <v>82</v>
       </c>
       <c r="C68">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D68" t="s">
         <v>88</v>
@@ -3522,13 +3605,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
       </c>
       <c r="C69">
-        <v>1980</v>
+        <v>1970</v>
       </c>
       <c r="D69" t="s">
         <v>88</v>
@@ -3542,7 +3625,7 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
@@ -3562,7 +3645,7 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -3580,55 +3663,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72">
-        <v>1970</v>
-      </c>
-      <c r="D72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E72" t="s">
-        <v>89</v>
-      </c>
-      <c r="F72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>101</v>
-      </c>
-      <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73">
-        <v>1970</v>
-      </c>
-      <c r="D73" t="s">
-        <v>88</v>
-      </c>
-      <c r="E73" t="s">
-        <v>89</v>
-      </c>
-      <c r="F73" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C74">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D74" t="s">
         <v>88</v>
@@ -3642,13 +3685,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C75">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D75" t="s">
         <v>88</v>
@@ -3665,10 +3708,10 @@
         <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C76">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D76" t="s">
         <v>88</v>
@@ -3685,10 +3728,10 @@
         <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C77">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D77" t="s">
         <v>88</v>
@@ -3702,10 +3745,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C78">
         <v>1980</v>
@@ -3722,10 +3765,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <v>1980</v>
@@ -3742,13 +3785,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C80">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D80" t="s">
         <v>88</v>
@@ -3762,13 +3805,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C81">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D81" t="s">
         <v>88</v>
@@ -3782,10 +3825,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>1980</v>
@@ -3802,10 +3845,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C83">
         <v>1980</v>
@@ -3822,13 +3865,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C84">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D84" t="s">
         <v>88</v>
@@ -3842,13 +3885,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C85">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D85" t="s">
         <v>88</v>
@@ -3862,13 +3905,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C86">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D86" t="s">
         <v>88</v>
@@ -3882,13 +3925,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C87">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D87" t="s">
         <v>88</v>
@@ -3902,13 +3945,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C88">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D88" t="s">
         <v>88</v>
@@ -3922,13 +3965,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B89" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D89" t="s">
         <v>88</v>
@@ -3937,38 +3980,18 @@
         <v>89</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90">
-        <v>1970</v>
-      </c>
-      <c r="D90" t="s">
-        <v>88</v>
-      </c>
-      <c r="E90" t="s">
-        <v>89</v>
-      </c>
-      <c r="F90" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C91">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D91" t="s">
         <v>88</v>
@@ -3982,10 +4005,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C92">
         <v>1980</v>
@@ -4002,13 +4025,13 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C93">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D93" t="s">
         <v>88</v>
@@ -4022,13 +4045,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C94">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D94" t="s">
         <v>88</v>
@@ -4045,7 +4068,7 @@
         <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C95">
         <v>1980</v>
@@ -4062,10 +4085,10 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C96">
         <v>1980</v>
@@ -4082,13 +4105,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B97" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C97">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D97" t="s">
         <v>88</v>
@@ -4102,13 +4125,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C98">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D98" t="s">
         <v>88</v>
@@ -4117,32 +4140,12 @@
         <v>89</v>
       </c>
       <c r="F98" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>124</v>
-      </c>
-      <c r="B99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C99">
-        <v>1980</v>
-      </c>
-      <c r="D99" t="s">
-        <v>88</v>
-      </c>
-      <c r="E99" t="s">
-        <v>89</v>
-      </c>
-      <c r="F99" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
         <v>82</v>
@@ -4162,7 +4165,7 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
         <v>77</v>
@@ -4182,13 +4185,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
         <v>73</v>
       </c>
       <c r="C102">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D102" t="s">
         <v>88</v>
@@ -4202,13 +4205,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
         <v>72</v>
       </c>
       <c r="C103">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D103" t="s">
         <v>88</v>
@@ -4268,7 +4271,7 @@
         <v>73</v>
       </c>
       <c r="C106">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D106" t="s">
         <v>88</v>
@@ -4288,7 +4291,7 @@
         <v>72</v>
       </c>
       <c r="C107">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D107" t="s">
         <v>88</v>
@@ -4297,26 +4300,6 @@
         <v>89</v>
       </c>
       <c r="F107" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>127</v>
-      </c>
-      <c r="B108" t="s">
-        <v>82</v>
-      </c>
-      <c r="C108">
-        <v>1980</v>
-      </c>
-      <c r="D108" t="s">
-        <v>88</v>
-      </c>
-      <c r="E108" t="s">
-        <v>89</v>
-      </c>
-      <c r="F108" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4325,7 +4308,7 @@
         <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C109">
         <v>1980</v>
@@ -4345,7 +4328,7 @@
         <v>127</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C110">
         <v>1980</v>
@@ -4365,10 +4348,10 @@
         <v>127</v>
       </c>
       <c r="B111" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C111">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D111" t="s">
         <v>88</v>
@@ -4382,13 +4365,13 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C112">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D112" t="s">
         <v>88</v>
@@ -4402,13 +4385,13 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B113" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C113">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D113" t="s">
         <v>88</v>
@@ -4422,13 +4405,13 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B114" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C114">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D114" t="s">
         <v>88</v>
@@ -4442,21 +4425,121 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="B115" t="s">
+        <v>73</v>
+      </c>
+      <c r="C115">
+        <v>1990</v>
+      </c>
+      <c r="D115" t="s">
+        <v>88</v>
+      </c>
+      <c r="E115" t="s">
+        <v>89</v>
+      </c>
+      <c r="F115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B116" t="s">
         <v>72</v>
       </c>
-      <c r="C115">
-        <v>1970</v>
-      </c>
-      <c r="D115" t="s">
-        <v>88</v>
-      </c>
-      <c r="E115" t="s">
-        <v>89</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="C116">
+        <v>1990</v>
+      </c>
+      <c r="D116" t="s">
+        <v>88</v>
+      </c>
+      <c r="E116" t="s">
+        <v>89</v>
+      </c>
+      <c r="F116" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117">
+        <v>1980</v>
+      </c>
+      <c r="D117" t="s">
+        <v>88</v>
+      </c>
+      <c r="E117" t="s">
+        <v>89</v>
+      </c>
+      <c r="F117" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>115</v>
+      </c>
+      <c r="B118" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118">
+        <v>1980</v>
+      </c>
+      <c r="D118" t="s">
+        <v>88</v>
+      </c>
+      <c r="E118" t="s">
+        <v>89</v>
+      </c>
+      <c r="F118" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>115</v>
+      </c>
+      <c r="B119" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119">
+        <v>1990</v>
+      </c>
+      <c r="D119" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>72</v>
+      </c>
+      <c r="C120">
+        <v>1990</v>
+      </c>
+      <c r="D120" t="s">
+        <v>88</v>
+      </c>
+      <c r="E120" t="s">
+        <v>89</v>
+      </c>
+      <c r="F120" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4476,10 +4559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4592,6 +4675,32 @@
       </c>
       <c r="I4" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1990</v>
+      </c>
+      <c r="G5">
+        <v>2020</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14640" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13720" yWindow="400" windowWidth="12260" windowHeight="12160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -410,10 +410,10 @@
     <t>swe</t>
   </si>
   <si>
-    <t>(Better match to inventory if don't use linear to 1 for hun, bgr, gbr ind/power)</t>
-  </si>
-  <si>
     <t>Don't scale prior to 1990 since we do not have consistent driver data at this level</t>
+  </si>
+  <si>
+    <t>(Better match to inventory if don't use linear to 1 for hun, bgr, gbr ind/power. Use 1990 year for EE + esp for Industry/power.</t>
   </si>
 </sst>
 </file>
@@ -469,8 +469,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="267">
+  <cellStyleXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -745,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="267">
+  <cellStyles count="285">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -879,6 +897,15 @@
     <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1012,6 +1039,15 @@
     <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2229,8 +2265,8 @@
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119:C120"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2260,7 +2296,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2791,10 +2827,10 @@
         <v>73</v>
       </c>
       <c r="C28">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
         <v>89</v>
@@ -2811,10 +2847,10 @@
         <v>72</v>
       </c>
       <c r="C29">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
         <v>89</v>
@@ -3717,7 +3753,7 @@
         <v>88</v>
       </c>
       <c r="E76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F76" t="s">
         <v>90</v>
@@ -3797,7 +3833,7 @@
         <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F80" t="s">
         <v>90</v>
@@ -3817,7 +3853,7 @@
         <v>88</v>
       </c>
       <c r="E81" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F81" t="s">
         <v>90</v>
@@ -3877,7 +3913,7 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F84" t="s">
         <v>90</v>
@@ -3897,7 +3933,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F85" t="s">
         <v>90</v>
@@ -3957,7 +3993,7 @@
         <v>88</v>
       </c>
       <c r="E88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F88" t="s">
         <v>90</v>
@@ -3977,7 +4013,7 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F89" t="s">
         <v>90</v>
@@ -4354,7 +4390,7 @@
         <v>1990</v>
       </c>
       <c r="D111" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E111" t="s">
         <v>89</v>
@@ -4374,7 +4410,7 @@
         <v>1990</v>
       </c>
       <c r="D112" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E112" t="s">
         <v>89</v>
@@ -4434,7 +4470,7 @@
         <v>1990</v>
       </c>
       <c r="D115" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E115" t="s">
         <v>89</v>
@@ -4454,7 +4490,7 @@
         <v>1990</v>
       </c>
       <c r="D116" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E116" t="s">
         <v>89</v>
@@ -4514,7 +4550,7 @@
         <v>1990</v>
       </c>
       <c r="D119" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E119" t="s">
         <v>89</v>
@@ -4534,7 +4570,7 @@
         <v>1990</v>
       </c>
       <c r="D120" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E120" t="s">
         <v>89</v>
@@ -4700,7 +4736,7 @@
         <v>2020</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13720" yWindow="400" windowWidth="12260" windowHeight="12160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13720" yWindow="400" windowWidth="25220" windowHeight="18420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>1A3di_International-shipping</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A4a_Commercial-institutional</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>(Better match to inventory if don't use linear to 1 for hun, bgr, gbr ind/power. Use 1990 year for EE + esp for Industry/power.</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1385,7 @@
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1411,20 +1411,20 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1527,17 +1527,17 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1547,219 +1547,219 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -1777,16 +1777,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>22</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
@@ -1819,118 +1819,118 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:6">
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:6">
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:6">
       <c r="C49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6">
       <c r="B51" s="2"/>
       <c r="C51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6">
       <c r="B52" s="2"/>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -1938,10 +1938,10 @@
     <row r="56" spans="1:6">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1949,44 +1949,44 @@
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6">
       <c r="B58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6">
       <c r="B59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2"/>
       <c r="E61" s="2"/>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="2"/>
       <c r="E62" s="2"/>
@@ -2264,7 +2264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
@@ -2284,7 +2284,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2296,2287 +2296,2287 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>1970</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>1970</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>1980</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5">
         <v>1980</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6">
         <v>1970</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>1970</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8">
         <v>1980</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>1980</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>1970</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>1970</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12">
         <v>1980</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13">
         <v>1980</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14">
         <v>1970</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>1970</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>1980</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>1980</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>1970</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>1970</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>1980</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21">
         <v>1980</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22">
         <v>1970</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>1970</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>1980</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>1980</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>1970</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>1970</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28">
         <v>1990</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29">
         <v>1990</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30">
         <v>1970</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>1970</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>1980</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>1980</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34">
         <v>1970</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35">
         <v>1970</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36">
         <v>1980</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>1980</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>1970</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39">
         <v>1970</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40">
         <v>1970</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>1970</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42">
         <v>1980</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C43">
         <v>1980</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44">
         <v>1970</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45">
         <v>1970</v>
       </c>
       <c r="D45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46">
         <v>1980</v>
       </c>
       <c r="D46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>1980</v>
       </c>
       <c r="D47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>1970</v>
       </c>
       <c r="D48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49">
         <v>1970</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50">
         <v>1980</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>1980</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52">
         <v>1970</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53">
         <v>1970</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54">
         <v>1980</v>
       </c>
       <c r="D54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55">
         <v>1980</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56">
         <v>1970</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57">
         <v>1970</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58">
         <v>1980</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59">
         <v>1980</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60">
         <v>1970</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61">
         <v>1970</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62">
         <v>1980</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63">
         <v>1980</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64">
         <v>1980</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>1980</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66">
         <v>1980</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67">
         <v>1980</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68">
         <v>1970</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <v>1970</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>1980</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>1980</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74">
         <v>1980</v>
       </c>
       <c r="D74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75">
         <v>1980</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76">
         <v>1990</v>
       </c>
       <c r="D76" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77">
         <v>1990</v>
       </c>
       <c r="D77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78">
         <v>1980</v>
       </c>
       <c r="D78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <v>1980</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C80">
         <v>1990</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C81">
         <v>1990</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>1980</v>
       </c>
       <c r="D82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83">
         <v>1980</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C84">
         <v>1990</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C85">
         <v>1990</v>
       </c>
       <c r="D85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86">
         <v>1980</v>
       </c>
       <c r="D86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C87">
         <v>1980</v>
       </c>
       <c r="D87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C88">
         <v>1990</v>
       </c>
       <c r="D88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C89">
         <v>1990</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91">
         <v>1980</v>
       </c>
       <c r="D91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C92">
         <v>1980</v>
       </c>
       <c r="D92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C93">
         <v>1990</v>
       </c>
       <c r="D93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C94">
         <v>1990</v>
       </c>
       <c r="D94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95">
         <v>1980</v>
       </c>
       <c r="D95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C96">
         <v>1980</v>
       </c>
       <c r="D96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C97">
         <v>1990</v>
       </c>
       <c r="D97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C98">
         <v>1990</v>
       </c>
       <c r="D98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100">
         <v>1980</v>
       </c>
       <c r="D100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F100" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C101">
         <v>1980</v>
       </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E101" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C102">
         <v>1990</v>
       </c>
       <c r="D102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C103">
         <v>1990</v>
       </c>
       <c r="D103" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E103" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C104">
         <v>1980</v>
       </c>
       <c r="D104" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E104" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F104" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C105">
         <v>1980</v>
       </c>
       <c r="D105" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E105" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F105" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C106">
         <v>1990</v>
       </c>
       <c r="D106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E106" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F106" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C107">
         <v>1990</v>
       </c>
       <c r="D107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E107" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F107" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C109">
         <v>1980</v>
       </c>
       <c r="D109" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E109" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F109" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B110" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C110">
         <v>1980</v>
       </c>
       <c r="D110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E110" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C111">
         <v>1990</v>
       </c>
       <c r="D111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E111" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F111" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C112">
         <v>1990</v>
       </c>
       <c r="D112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F112" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C113">
         <v>1980</v>
       </c>
       <c r="D113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E113" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F113" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C114">
         <v>1980</v>
       </c>
       <c r="D114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F114" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C115">
         <v>1990</v>
       </c>
       <c r="D115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B116" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C116">
         <v>1990</v>
       </c>
       <c r="D116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E116" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117">
         <v>1980</v>
       </c>
       <c r="D117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E117" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F117" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C118">
         <v>1980</v>
       </c>
       <c r="D118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E118" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F118" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C119">
         <v>1990</v>
       </c>
       <c r="D119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E119" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F119" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C120">
         <v>1990</v>
       </c>
       <c r="D120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E120" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F120" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4597,7 +4597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -4617,24 +4617,24 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>95</v>
-      </c>
-      <c r="H1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4652,15 +4652,15 @@
         <v>2010</v>
       </c>
       <c r="H2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4681,15 +4681,15 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -4710,15 +4710,15 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -4736,7 +4736,7 @@
         <v>2020</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13720" yWindow="400" windowWidth="25220" windowHeight="18420" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="131">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -469,8 +469,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="285">
+  <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -763,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="285">
+  <cellStyles count="287">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -906,6 +908,7 @@
     <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1048,6 +1051,7 @@
     <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2251,7 +2255,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4584,7 +4587,6 @@
     <sortCondition ref="A2:A123"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4595,15 +4597,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -4655,7 +4657,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -4678,13 +4680,10 @@
         <v>2020</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -4707,13 +4706,10 @@
         <v>2020</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>126</v>
       </c>
